--- a/pdf/6-Annexe_6-1-Tableau_de_synthèse-Epreuve E4-BTS_SIO_2024.xlsx
+++ b/pdf/6-Annexe_6-1-Tableau_de_synthèse-Epreuve E4-BTS_SIO_2024.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIO_Cours\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noob\Documents\Portfolio\www\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C383E27-2CB2-4212-92B0-8ACAB3865B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A41DD0E-68D5-4900-B23D-3EC236ED0243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45015" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$41</definedName>
+    <definedName name="Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$41</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,19 +39,10 @@
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
-    <t>SESSION 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
     <t>Option :</t>
-  </si>
-  <si>
-    <t>▢ SISR</t>
-  </si>
-  <si>
-    <t>▢ SLAM</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -134,9 +124,6 @@
     <t>Misen en place d'une veille technologique</t>
   </si>
   <si>
-    <t>installation et déployement d'un système de gestion des incident sous Debian 12 - GLPI</t>
-  </si>
-  <si>
     <t>Simulation d'une infrastructure réseaux - GNS3</t>
   </si>
   <si>
@@ -234,6 +221,18 @@
   </si>
   <si>
     <t>Adresse URL du portfolio : https://merielj.github.io</t>
+  </si>
+  <si>
+    <t>SESSION 2024</t>
+  </si>
+  <si>
+    <t>Installation et déployement d'un système de gestion des incident sous Debian 12 - GLPI</t>
+  </si>
+  <si>
+    <t>SISR</t>
+  </si>
+  <si>
+    <t>SLAM</t>
   </si>
 </sst>
 </file>
@@ -243,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -305,6 +304,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -320,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -332,21 +338,6 @@
       <left style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
       <right/>
       <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
@@ -373,21 +364,6 @@
         <color theme="2" tint="-0.749992370372631"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom style="thin">
@@ -480,36 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
@@ -659,6 +605,200 @@
       <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -666,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -683,100 +823,130 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1108,124 +1278,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="23"/>
+      <c r="A3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="28"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="10" t="s">
+      <c r="A4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>23</v>
+      <c r="H7" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1263,17 +1433,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1311,19 +1481,19 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
-        <v>53</v>
+      <c r="A9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37" t="s">
+        <v>49</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1362,23 +1532,23 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>53</v>
+      <c r="A10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>49</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1417,21 +1587,21 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
-        <v>53</v>
+      <c r="A11" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="39" t="s">
+        <v>49</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1470,22 +1640,22 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="A12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="39"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1523,22 +1693,22 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="A13" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="39"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1576,22 +1746,22 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="12"/>
+      <c r="A14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="39"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1629,22 +1799,22 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="12"/>
+      <c r="A15" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="39"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1682,22 +1852,22 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="12"/>
+      <c r="A16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="39"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1735,24 +1905,24 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="12"/>
+      <c r="A17" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="39"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1790,24 +1960,24 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="12"/>
+      <c r="A18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="39"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1845,24 +2015,24 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="12"/>
+      <c r="A19" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1900,22 +2070,22 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="12"/>
+      <c r="A20" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="39"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1953,22 +2123,22 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="12"/>
+      <c r="A21" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="39"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2006,20 +2176,20 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="39"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2057,20 +2227,20 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="A23" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="39"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2108,20 +2278,20 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="A24" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="39"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2158,21 +2328,21 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2209,17 +2379,17 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2257,22 +2427,22 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2310,24 +2480,24 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="A28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="33"/>
+      <c r="H28" s="39"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2365,22 +2535,22 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="A29" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="39"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2418,24 +2588,24 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="A30" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="39"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2472,21 +2642,21 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2523,17 +2693,17 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="47"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2571,24 +2741,24 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="12"/>
+      <c r="A33" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="37"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2626,24 +2796,24 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="12"/>
+      <c r="A34" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="39"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2681,24 +2851,24 @@
       <c r="AQ34"/>
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="12"/>
+      <c r="A35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="39"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2736,24 +2906,24 @@
       <c r="AQ35"/>
     </row>
     <row r="36" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="12"/>
+      <c r="A36" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="39"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
@@ -2791,24 +2961,24 @@
       <c r="AQ36"/>
     </row>
     <row r="37" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="12"/>
+      <c r="A37" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="39"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -2846,24 +3016,24 @@
       <c r="AQ37"/>
     </row>
     <row r="38" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="12"/>
+      <c r="A38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="39"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
@@ -2900,23 +3070,23 @@
       <c r="AP38"/>
       <c r="AQ38"/>
     </row>
-    <row r="39" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="12"/>
+    <row r="39" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="44"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
@@ -3083,6 +3253,11 @@
     <row r="87" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -3090,11 +3265,6 @@
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
